--- a/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
+++ b/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\TestProject\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B8C94-13CA-4464-A6AD-FE203ECC14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F1CFC-4CE8-4D8C-8B13-C18E8CE8E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PopulationName</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>TestPopulation</t>
+  </si>
+  <si>
+    <t>Ontogeny</t>
+  </si>
+  <si>
+    <t>Protein</t>
   </si>
 </sst>
 </file>
@@ -448,30 +454,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.87890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.41015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5859375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.87890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +526,14 @@
       <c r="P1" t="s">
         <v>19</v>
       </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -568,12 +580,12 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="19.703125" customWidth="1"/>
+    <col min="3" max="3" width="9.29296875" customWidth="1"/>
+    <col min="4" max="4" width="9.703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
+++ b/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F1CFC-4CE8-4D8C-8B13-C18E8CE8E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FA645-6A51-4F05-9403-194CDA2F37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>PopulationName</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Protein</t>
+  </si>
+  <si>
+    <t>CYP3A4, CYP2D6</t>
+  </si>
+  <si>
+    <t>TestPopulation_noOnto</t>
   </si>
 </sst>
 </file>
@@ -454,27 +460,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5859375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.87890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.87890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5859375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -562,6 +568,44 @@
         <v>41</v>
       </c>
       <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -580,12 +624,12 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="19.703125" customWidth="1"/>
-    <col min="3" max="3" width="9.29296875" customWidth="1"/>
-    <col min="4" max="4" width="9.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,26 +660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -872,26 +896,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B86647EE-866F-4D07-B65C-304BD8EB10F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -908,4 +933,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
+++ b/inst/extdata/examples/TestProject/Parameters/PopulationParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\TestProject\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B8C94-13CA-4464-A6AD-FE203ECC14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FA645-6A51-4F05-9403-194CDA2F37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>PopulationName</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>TestPopulation</t>
+  </si>
+  <si>
+    <t>Ontogeny</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>CYP3A4, CYP2D6</t>
+  </si>
+  <si>
+    <t>TestPopulation_noOnto</t>
   </si>
 </sst>
 </file>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -471,7 +483,7 @@
     <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +532,14 @@
       <c r="P1" t="s">
         <v>19</v>
       </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -550,6 +568,44 @@
         <v>41</v>
       </c>
       <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -604,26 +660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -860,26 +896,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B86647EE-866F-4D07-B65C-304BD8EB10F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -896,4 +933,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>